--- a/umit_files_xlsx/umit_fiz.xlsx
+++ b/umit_files_xlsx/umit_fiz.xlsx
@@ -625,8 +625,8 @@
         <v>903</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плоское зеркало. Построение изображений в плоском зеркале ")</f>
-        <v>Плоское зеркало. Построение изображений в плоском зеркале </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плоское зеркало. Построение изображений в плоском зеркале")</f>
+        <v>Плоское зеркало. Построение изображений в плоском зеркале</v>
       </c>
       <c r="V4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
@@ -845,8 +845,8 @@
         <v>1006</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Красная граница фотоэффекта. Условие начала фотоэффекта ")</f>
-        <v>Красная граница фотоэффекта. Условие начала фотоэффекта </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Красная граница фотоэффекта. Условие начала фотоэффекта")</f>
+        <v>Красная граница фотоэффекта. Условие начала фотоэффекта</v>
       </c>
       <c r="X6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
@@ -951,12 +951,12 @@
         <v>1008</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа выхода электронов из металла")</f>
-        <v>Работа выхода электронов из металла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Эйнштейна для фотоэффекта")</f>
+        <v>Уравнение Эйнштейна для фотоэффекта</v>
       </c>
       <c r="X7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
-        <v>1108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
+        <v>1109</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Снимать необходимые данные с графиков, таблиц, диаграмм")</f>
@@ -1057,12 +1057,12 @@
         <v>1009</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Эйнштейна для фотоэффекта")</f>
-        <v>Уравнение Эйнштейна для фотоэффекта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина волны де Бройля движущейся частицы")</f>
+        <v>Длина волны де Бройля движущейся частицы</v>
       </c>
       <c r="X8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
-        <v>1109</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
+        <v>1111</v>
       </c>
       <c r="Y8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объяснять результаты экспериментов по картинке опыта")</f>
@@ -1083,12 +1083,12 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение пружин")</f>
-        <v>Последовательное и параллельное соединение пружин</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирное тяготение. Закон всемирного тяготения")</f>
+        <v>Всемирное тяготение. Закон всемирного тяготения</v>
       </c>
       <c r="D9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
-        <v>116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центр тяжести однородного тела")</f>
@@ -1163,12 +1163,12 @@
         <v>1010</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина волны де Бройля движущейся частицы")</f>
-        <v>Длина волны де Бройля движущейся частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Лебедева. Давление света")</f>
+        <v>Опыты Лебедева. Давление света</v>
       </c>
       <c r="X9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
-        <v>1111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
+        <v>1113</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с векторами. Правило параллелограмма (треугольника) при сложении (вычитании) векторов")</f>
@@ -1189,12 +1189,12 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирное тяготение. Закон всемирного тяготения")</f>
-        <v>Всемирное тяготение. Закон всемирного тяготения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тяжести")</f>
+        <v>Сила тяжести</v>
       </c>
       <c r="D10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1263,12 +1263,12 @@
         <v>1011</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Лебедева. Давление света")</f>
-        <v>Опыты Лебедева. Давление света</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постулаты Бора")</f>
+        <v>Постулаты Бора</v>
       </c>
       <c r="X10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
-        <v>1113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
+        <v>1116</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цена деления и погрешность приборов. Снятие показаний. Двухшкальные приборы")</f>
@@ -1289,12 +1289,12 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тяжести")</f>
-        <v>Сила тяжести</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение свободного падения на небесных телах")</f>
+        <v>Ускорение свободного падения на небесных телах</v>
       </c>
       <c r="D11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1363,12 +1363,12 @@
         <v>1012</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постулаты Бора")</f>
-        <v>Постулаты Бора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы")</f>
+        <v>Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы</v>
       </c>
       <c r="X11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
-        <v>1116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
+        <v>1117</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понимание текстов физического содержания. Умение находить ответы на вопросы в тексте")</f>
@@ -1389,12 +1389,12 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение свободного падения на небесных телах")</f>
-        <v>Ускорение свободного падения на небесных телах</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение небесных тел и их искусственных спутников")</f>
+        <v>Движение небесных тел и их искусственных спутников</v>
       </c>
       <c r="D12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1463,12 +1463,12 @@
         <v>1013</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы")</f>
-        <v>Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода")</f>
+        <v>Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода</v>
       </c>
       <c r="X12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
-        <v>1117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
+        <v>1119</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понимание физических основ и принципов действия (работы) машин и механизмов, средств передвижения и связи, бытовых приборов")</f>
@@ -1489,12 +1489,12 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение небесных тел и их искусственных спутников")</f>
-        <v>Движение небесных тел и их искусственных спутников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая и вторая космическая скорость, их формулы")</f>
+        <v>Первая и вторая космическая скорость, их формулы</v>
       </c>
       <c r="D13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1517,12 +1517,12 @@
         <v>517</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение конденсаторов")</f>
-        <v>Последовательное и параллельное соединение конденсаторов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение таблиц зависимости тока зарядки конденсатора от времени ")</f>
+        <v>Чтение таблиц зависимости тока зарядки конденсатора от времени </v>
       </c>
       <c r="N13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
-        <v>622</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
+        <v>628</v>
       </c>
       <c r="O13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Джоуля-Ленца")</f>
@@ -1551,12 +1551,12 @@
         <v>1014</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода")</f>
-        <v>Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы")</f>
+        <v>Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы</v>
       </c>
       <c r="X13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
-        <v>1119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
+        <v>1120</v>
       </c>
       <c r="Y13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция вектора на ось.  Сложение и вычитание проекций векторов")</f>
@@ -1569,20 +1569,20 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке")</f>
-        <v>Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.")</f>
+        <v>Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.</v>
       </c>
       <c r="B14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
-        <v>22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая и вторая космическая скорость, их формулы")</f>
-        <v>Первая и вторая космическая скорость, их формулы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила реакции опоры, вес (сила давления на опору)")</f>
+        <v>Сила реакции опоры, вес (сила давления на опору)</v>
       </c>
       <c r="D14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
-        <v>122</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
+        <v>124</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1605,12 +1605,12 @@
         <v>518</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия заряженного конденсатора")</f>
-        <v>Энергия заряженного конденсатора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение заряженной частицы в эдектрическом поле")</f>
+        <v>Движение заряженной частицы в эдектрическом поле</v>
       </c>
       <c r="N14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
-        <v>624</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
+        <v>629</v>
       </c>
       <c r="O14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мощность и КПД источника тока")</f>
@@ -1639,12 +1639,12 @@
         <v>1015</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы")</f>
-        <v>Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия связи нуклонов в ядре. Ядерные силы")</f>
+        <v>Энергия связи нуклонов в ядре. Ядерные силы</v>
       </c>
       <c r="X14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
-        <v>1120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
+        <v>1121</v>
       </c>
       <c r="Y14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа со степенями")</f>
@@ -1657,20 +1657,20 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.")</f>
-        <v>Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)")</f>
+        <v>График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)</v>
       </c>
       <c r="B15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила реакции опоры, вес (сила давления на опору)")</f>
-        <v>Сила реакции опоры, вес (сила давления на опору)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление по определению, давление твердых тел")</f>
+        <v>Давление по определению, давление твердых тел</v>
       </c>
       <c r="D15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
-        <v>124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1693,12 +1693,12 @@
         <v>520</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранение заряда/напряжения конденсатора при отключении/подключении к источнику тока")</f>
-        <v>Сохранение заряда/напряжения конденсатора при отключении/подключении к источнику тока</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряженность и потенциал шара (либо тела любой другой формы)")</f>
+        <v>Напряженность и потенциал шара (либо тела любой другой формы)</v>
       </c>
       <c r="N15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
-        <v>625</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
+        <v>630</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа, мощность и количество теплоты при последовательном и параллельном соединении потребителей")</f>
@@ -1729,12 +1729,12 @@
         <v>1016</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия связи нуклонов в ядре. Ядерные силы")</f>
-        <v>Энергия связи нуклонов в ядре. Ядерные силы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение альфа распада")</f>
+        <v>Уравнение альфа распада</v>
       </c>
       <c r="X15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
-        <v>1121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="Y15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Решение систем уравнений, выражение величин из уравнений")</f>
@@ -1747,20 +1747,20 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)")</f>
-        <v>График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График координаты, перемещения, пути, ускорения при равноускоренном движении")</f>
+        <v>График координаты, перемещения, пути, ускорения при равноускоренном движении</v>
       </c>
       <c r="B16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление по определению, давление твердых тел")</f>
-        <v>Давление по определению, давление твердых тел</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона для движения тела по наклонной плоскости")</f>
+        <v>Применение второго закона Ньютона для движения тела по наклонной плоскости</v>
       </c>
       <c r="D16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
+        <v>129</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1783,12 +1783,12 @@
         <v>521</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение таблиц зависимости тока зарядки конденсатора от времени ")</f>
-        <v>Чтение таблиц зависимости тока зарядки конденсатора от времени </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа сил поля по перемещению зарядов")</f>
+        <v>Работа сил поля по перемещению зарядов</v>
       </c>
       <c r="N16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
-        <v>628</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
+        <v>631</v>
       </c>
       <c r="O16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полупроводниковый диод. Прохождение тока через полупроводниковый диод. Применение")</f>
@@ -1817,12 +1817,12 @@
         <v>1019</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефект массы ядра")</f>
-        <v>Дефект массы ядра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения бета распада электронного и позитронного типа")</f>
+        <v>Уравнения бета распада электронного и позитронного типа</v>
       </c>
       <c r="X16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1122.0)</f>
-        <v>1122</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
+        <v>1126</v>
       </c>
       <c r="Y16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выбирать необходимое оборудование,схемы,установки, для проведения эксперимента согласно поставленной цели")</f>
@@ -1835,20 +1835,20 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График координаты, перемещения, пути, ускорения при равноускоренном движении")</f>
-        <v>График координаты, перемещения, пути, ускорения при равноускоренном движении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и ее применение в кинематике, производная от уравнения")</f>
+        <v>Производная и ее применение в кинематике, производная от уравнения</v>
       </c>
       <c r="B17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона для движения тела по наклонной плоскости")</f>
-        <v>Применение второго закона Ньютона для движения тела по наклонной плоскости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение связанных систем")</f>
+        <v>Движение связанных систем</v>
       </c>
       <c r="D17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
-        <v>129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1870,14 +1870,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
         <v>522</v>
       </c>
-      <c r="M17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение заряженной частицы в эдектрическом поле")</f>
-        <v>Движение заряженной частицы в эдектрическом поле</v>
-      </c>
-      <c r="N17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
-        <v>629</v>
-      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конденсатор в цепи постоянного тока")</f>
         <v>Конденсатор в цепи постоянного тока</v>
@@ -1905,12 +1899,12 @@
         <v>1022</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение альфа распада")</f>
-        <v>Уравнение альфа распада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения зарядового и массового числа при написании реакций и уравнений распада")</f>
+        <v>Законы сохранения зарядового и массового числа при написании реакций и уравнений распада</v>
       </c>
       <c r="X17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
+        <v>1127</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы площади и объема геометрических фигур и тел")</f>
@@ -1923,20 +1917,20 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и ее применение в кинематике, производная от уравнения")</f>
-        <v>Производная и ее применение в кинематике, производная от уравнения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение по графику координаты и графику скорости равноускоренного движения")</f>
+        <v>Ускорение по графику координаты и графику скорости равноускоренного движения</v>
       </c>
       <c r="B18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение связанных систем")</f>
-        <v>Движение связанных систем</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона при движении по окружности")</f>
+        <v>Применение второго закона Ньютона при движении по окружности</v>
       </c>
       <c r="D18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1952,14 +1946,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
         <v>524</v>
       </c>
-      <c r="M18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряженность и потенциал шара (либо тела любой другой формы)")</f>
-        <v>Напряженность и потенциал шара (либо тела любой другой формы)</v>
-      </c>
-      <c r="N18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
-        <v>630</v>
-      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1975,12 +1963,12 @@
         <v>1023</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения бета распада электронного и позитронного типа")</f>
-        <v>Уравнения бета распада электронного и позитронного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон радиоактивного распада, его статистический характер")</f>
+        <v>Закон радиоактивного распада, его статистический характер</v>
       </c>
       <c r="X18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
-        <v>1126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
+        <v>1128</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение проводить анализ  заданий представленных в виде картинки, сопоставлять текст и картинку, выделять необходимые элементы для решения задачи.")</f>
@@ -1993,20 +1981,20 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение по графику координаты и графику скорости равноускоренного движения")</f>
-        <v>Ускорение по графику координаты и графику скорости равноускоренного движения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)")</f>
+        <v>Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)</v>
       </c>
       <c r="B19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона при движении по окружности")</f>
-        <v>Применение второго закона Ньютона при движении по окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция равнодействующей силы по графику скорости")</f>
+        <v>Проекция равнодействующей силы по графику скорости</v>
       </c>
       <c r="D19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2022,14 +2010,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
         <v>527</v>
       </c>
-      <c r="M19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа сил поля по перемещению зарядов")</f>
-        <v>Работа сил поля по перемещению зарядов</v>
-      </c>
-      <c r="N19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
-        <v>631</v>
-      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2037,20 +2019,20 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение области видения предмета в плоском зеркале")</f>
-        <v>Построение области видения предмета в плоском зеркале</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия света. Цвет")</f>
+        <v>Дисперсия света. Цвет</v>
       </c>
       <c r="V19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025.0)</f>
-        <v>1025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026.0)</f>
+        <v>1026</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения зарядового и массового числа при написании реакций и уравнений распада")</f>
-        <v>Законы сохранения зарядового и массового числа при написании реакций и уравнений распада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада")</f>
+        <v>График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада</v>
       </c>
       <c r="X19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
-        <v>1127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
+        <v>1129</v>
       </c>
       <c r="Y19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Пифагора")</f>
@@ -2063,20 +2045,20 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)")</f>
-        <v>Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали")</f>
+        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали</v>
       </c>
       <c r="B20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция равнодействующей силы по графику скорости")</f>
-        <v>Проекция равнодействующей силы по графику скорости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение вдоль прямой под действием нескольких сил")</f>
+        <v>Движение вдоль прямой под действием нескольких сил</v>
       </c>
       <c r="D20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2100,41 +2082,35 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия света. Цвет")</f>
-        <v>Дисперсия света. Цвет</v>
-      </c>
-      <c r="V20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026.0)</f>
-        <v>1026</v>
-      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон радиоактивного распада, его статистический характер")</f>
-        <v>Закон радиоактивного распада, его статистический характер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ядерные реакции. Деление и синтез ядер")</f>
+        <v>Ядерные реакции. Деление и синтез ядер</v>
       </c>
       <c r="X20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
-        <v>1128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
+        <v>1130</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали")</f>
-        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.")</f>
+        <v>Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.</v>
       </c>
       <c r="B21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение вдоль прямой под действием нескольких сил")</f>
-        <v>Движение вдоль прямой под действием нескольких сил</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила натяжения нити")</f>
+        <v>Сила натяжения нити</v>
       </c>
       <c r="D21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2161,33 +2137,27 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада")</f>
-        <v>График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементарные частицы и их свойства")</f>
+        <v>Элементарные частицы и их свойства</v>
       </c>
       <c r="X21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
-        <v>1129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
+        <v>1131</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.")</f>
-        <v>Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту")</f>
+        <v>Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту</v>
       </c>
       <c r="B22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила натяжения нити")</f>
-        <v>Сила натяжения нити</v>
-      </c>
-      <c r="D22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2213,24 +2183,24 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ядерные реакции. Деление и синтез ядер")</f>
-        <v>Ядерные реакции. Деление и синтез ядер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инвариантность модуля скорости света в вакууме")</f>
+        <v>Инвариантность модуля скорости света в вакууме</v>
       </c>
       <c r="X22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
-        <v>1130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
+        <v>1132</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту")</f>
-        <v>Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту")</f>
+        <v>Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту</v>
       </c>
       <c r="B23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2259,24 +2229,24 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементарные частицы и их свойства")</f>
-        <v>Элементарные частицы и их свойства</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий")</f>
+        <v>Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий</v>
       </c>
       <c r="X23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
-        <v>1131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
+        <v>1134</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту")</f>
-        <v>Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту")</f>
+        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту</v>
       </c>
       <c r="B24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2305,24 +2275,24 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инвариантность модуля скорости света в вакууме")</f>
-        <v>Инвариантность модуля скорости света в вакууме</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Релятивистский закон сложения скоростей")</f>
+        <v>Релятивистский закон сложения скоростей</v>
       </c>
       <c r="X24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
-        <v>1132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
+        <v>1135</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту")</f>
-        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула центростремительного ускорения при равномерном движении по окружности")</f>
+        <v>Формула центростремительного ускорения при равномерном движении по окружности</v>
       </c>
       <c r="B25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2351,24 +2321,24 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий")</f>
-        <v>Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия свободной частицы")</f>
+        <v>Энергия свободной частицы</v>
       </c>
       <c r="X25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
-        <v>1134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
+        <v>1136</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула центростремительного ускорения при равномерном движении по окружности")</f>
-        <v>Формула центростремительного ускорения при равномерном движении по окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь линейной и угловой скорости")</f>
+        <v>Связь линейной и угловой скорости</v>
       </c>
       <c r="B26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2397,24 +2367,24 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Релятивистский закон сложения скоростей")</f>
-        <v>Релятивистский закон сложения скоростей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс частицы")</f>
+        <v>Импульс частицы</v>
       </c>
       <c r="X26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
-        <v>1135</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
+        <v>1137</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь линейной и угловой скорости")</f>
-        <v>Связь линейной и угловой скорости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула, связывающая период и частоту обращения")</f>
+        <v>Формула, связывающая период и частоту обращения</v>
       </c>
       <c r="B27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2443,24 +2413,24 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия свободной частицы")</f>
-        <v>Энергия свободной частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь массы и энергии свободной частицы")</f>
+        <v>Связь массы и энергии свободной частицы</v>
       </c>
       <c r="X27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
-        <v>1136</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
+        <v>1138</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула, связывающая период и частоту обращения")</f>
-        <v>Формула, связывающая период и частоту обращения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для вычисления скорости через радиус окружности и период обращени")</f>
+        <v>Формула для вычисления скорости через радиус окружности и период обращени</v>
       </c>
       <c r="B28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2489,25 +2459,19 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс частицы")</f>
-        <v>Импульс частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия релятивистской частицы")</f>
+        <v>Кинетическая энергия релятивистской частицы</v>
       </c>
       <c r="X28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
-        <v>1137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
+        <v>1139</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для вычисления скорости через радиус окружности и период обращени")</f>
-        <v>Формула для вычисления скорости через радиус окружности и период обращени</v>
-      </c>
-      <c r="B29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2535,12 +2499,12 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь массы и энергии свободной частицы")</f>
-        <v>Связь массы и энергии свободной частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия покоя свободной частицы")</f>
+        <v>Энергия покоя свободной частицы</v>
       </c>
       <c r="X29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
-        <v>1138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
+        <v>1140</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2574,14 +2538,8 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия релятивистской частицы")</f>
-        <v>Кинетическая энергия релятивистской частицы</v>
-      </c>
-      <c r="X30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
-        <v>1139</v>
-      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
@@ -2614,14 +2572,8 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия покоя свободной частицы")</f>
-        <v>Энергия покоя свободной частицы</v>
-      </c>
-      <c r="X31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
-        <v>1140</v>
-      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
